--- a/data/trans_orig/Q02D_FES-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_FES-Edad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>7.913208826021945</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.520893850573392</v>
+        <v>4.520893850573393</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>8.371926287131625</v>
@@ -681,7 +681,7 @@
         <v>11.32473267889027</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>6.515448824231687</v>
+        <v>6.515448824231686</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>7.766546343534328</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.46196862506104</v>
+        <v>4.56238253251809</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.317339601722324</v>
+        <v>4.374679384892717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.578088942998108</v>
+        <v>5.804707605874861</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.27791296128049</v>
+        <v>2.406239711025045</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.956860741707489</v>
+        <v>6.909569889650609</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.466469942821276</v>
+        <v>6.493486356348728</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>9.82423513510361</v>
+        <v>9.810207559047894</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.812847172131147</v>
+        <v>4.003244627814281</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.378260292033711</v>
+        <v>6.466639803367463</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6.009737963066263</v>
+        <v>5.997167631243336</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8.791047105883784</v>
+        <v>8.963411604670831</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3.829840861960209</v>
+        <v>3.929905267753399</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.17624968197845</v>
+        <v>9.977797927388695</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.412772764395504</v>
+        <v>6.466701116235464</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.87066820138276</v>
+        <v>11.07719286015926</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.67025344917547</v>
+        <v>11.4035652295031</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.59317447598571</v>
+        <v>10.21154357756878</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.235336717330036</v>
+        <v>8.311573026275777</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.01328219242851</v>
+        <v>13.01041559989762</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.33561462232954</v>
+        <v>10.72796829533459</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.398246248387501</v>
+        <v>9.299231903858853</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.523304694451014</v>
+        <v>7.440263675617236</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11.62144118352744</v>
+        <v>11.83514280802674</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>8.774860859981622</v>
+        <v>8.637714092208279</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>9.27208836388955</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9.86634253195496</v>
+        <v>9.866342531954961</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>8.955707281195689</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.886637879481212</v>
+        <v>4.914792643855729</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.752862734296668</v>
+        <v>5.738342715970193</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.153338849388376</v>
+        <v>8.288249379751612</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.764813324930734</v>
+        <v>7.719286798875203</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>8.153341571290536</v>
+        <v>8.013521552343436</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>8.023657848264639</v>
+        <v>8.000916886604161</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>10.51835513427536</v>
+        <v>10.49186213668137</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>9.447935535668844</v>
+        <v>9.456265375431199</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>7.234380119116066</v>
+        <v>7.176896337486435</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7.300759575061192</v>
+        <v>7.316328440610481</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9.868776830368033</v>
+        <v>9.912696483218667</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>9.364635947852779</v>
+        <v>9.469405726799135</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.561626098478976</v>
+        <v>6.670313957507364</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.74527722591584</v>
+        <v>6.881933488454174</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.50913783893135</v>
+        <v>10.53443412300101</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.66101646497762</v>
+        <v>12.91928820953969</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>9.907835689561312</v>
+        <v>9.781120386780026</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.845398230063205</v>
+        <v>8.84911295334428</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>12.22667584906468</v>
+        <v>12.26025360236899</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>12.05055235208285</v>
+        <v>11.94978968313259</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>8.485443334894079</v>
+        <v>8.504507022687982</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7.99646205561869</v>
+        <v>8.020087208470315</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11.24977394943842</v>
+        <v>11.35218234098992</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>11.71771560189768</v>
+        <v>11.78183168517247</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>9.449566357345731</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.387700690204051</v>
+        <v>7.387700690204053</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>6.542769010772767</v>
@@ -953,7 +953,7 @@
         <v>10.25126236382473</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>9.097904086731154</v>
+        <v>9.097904086731152</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>5.749621035744637</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.066073521134909</v>
+        <v>4.071732873705782</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.039735482660546</v>
+        <v>5.060705584032822</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.584651821305778</v>
+        <v>8.592231168441256</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.543402016600198</v>
+        <v>6.583324644607638</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.956136342243559</v>
+        <v>5.909793636029605</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.875047869082862</v>
+        <v>6.885422407873398</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>9.530422057462413</v>
+        <v>9.532181556164158</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.321048175627194</v>
+        <v>8.272136553574169</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.338790858067682</v>
+        <v>5.296866586114364</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6.187837282897334</v>
+        <v>6.214832324016192</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9.304759485647505</v>
+        <v>9.362918552212568</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>7.787327767739614</v>
+        <v>7.773342347461305</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.358643015698583</v>
+        <v>5.30020285080063</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.797095507361195</v>
+        <v>5.797308255710417</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.33284513721465</v>
+        <v>10.3197094711504</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.50332972514129</v>
+        <v>8.465838431675532</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.163698498953592</v>
+        <v>7.142772471822529</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.597225187603372</v>
+        <v>7.611938968653684</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.97737985871431</v>
+        <v>11.01779983216366</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.05884702432064</v>
+        <v>10.05449964276729</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.195652533902625</v>
+        <v>6.250216853105026</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.722822761085081</v>
+        <v>6.74092364427872</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10.46183778493979</v>
+        <v>10.44015993159551</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>9.101252101557471</v>
+        <v>9.068919004731091</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>6.906009785148556</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.996533729753702</v>
+        <v>5.9965337297537</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>5.397134733177833</v>
@@ -1101,7 +1101,7 @@
         <v>8.021545363444073</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>6.900826114274451</v>
+        <v>6.900826114274452</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.286252232039361</v>
+        <v>2.293369858597756</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.906018256176832</v>
+        <v>3.923760500899554</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.946211256529031</v>
+        <v>5.938265612471521</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.960584064767864</v>
+        <v>4.955267549296343</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>4.475837082778143</v>
+        <v>4.574210756185878</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>5.221676893420003</v>
+        <v>5.213251000931806</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>8.034740379221345</v>
+        <v>7.979424782199011</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>6.614770281621019</v>
+        <v>6.528899674851386</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.673353410203473</v>
+        <v>3.643477754743015</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4.753242236684536</v>
+        <v>4.728636941380979</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.315849744357415</v>
+        <v>7.31203904639293</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.099390518867067</v>
+        <v>6.157534393883505</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.469667161928124</v>
+        <v>3.569748212219566</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.943612211159182</v>
+        <v>4.885370930727643</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.027258547992906</v>
+        <v>7.995936756000647</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.912764372461742</v>
+        <v>7.764701102228234</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>6.346207737148303</v>
+        <v>6.451452757151039</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>6.17561705437663</v>
+        <v>6.170109449682267</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>10.1092304768876</v>
+        <v>10.18138873927597</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>8.757537170888613</v>
+        <v>8.819265297876738</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>4.870235653907145</v>
+        <v>4.760199006445712</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5.452360981651673</v>
+        <v>5.451912505947107</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8.832154511065681</v>
+        <v>8.900533990091914</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>7.914109261073206</v>
+        <v>7.912277592345147</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.315728155887484</v>
+        <v>3.535779756842435</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.827827490261144</v>
+        <v>4.657250953717083</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.17099884605246</v>
+        <v>4.19670934667641</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.467808017553301</v>
+        <v>3.312450182275456</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.226724338170114</v>
+        <v>4.326996873625248</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.861013386382402</v>
+        <v>4.818855862281052</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.452183972657448</v>
+        <v>7.468273016822869</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>5.329391829315368</v>
+        <v>5.133641860004386</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.343539493667209</v>
+        <v>4.346662450605139</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.011843876675863</v>
+        <v>5.13093416924156</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6.502995834998385</v>
+        <v>6.309466961994468</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>4.921797439756162</v>
+        <v>4.911766434100966</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.589837230055887</v>
+        <v>10.32012359391782</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.087346401421988</v>
+        <v>7.101473204786815</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.282645032399873</v>
+        <v>8.707330687796935</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.883434632062351</v>
+        <v>6.775778819090443</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.773535914945046</v>
+        <v>7.109161962572453</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.613120175775911</v>
+        <v>6.579670963190521</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>11.4752289863619</v>
+        <v>11.28181070026371</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.760358342363782</v>
+        <v>9.263871969319259</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.843096168131695</v>
+        <v>6.750697107441196</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.496331805597235</v>
+        <v>6.506411341145403</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9.346461309181016</v>
+        <v>9.49061264346242</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>7.796521484080522</v>
+        <v>7.823072628201124</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +1373,7 @@
         <v>6.877392167628958</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>4.803351354778276</v>
+        <v>4.803351354778277</v>
       </c>
     </row>
     <row r="20">
@@ -1384,38 +1384,38 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.378092408450921</v>
+        <v>4.391533335093711</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.618926516846121</v>
+        <v>4.664568622495941</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.654802162976844</v>
+        <v>4.567431316520503</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>4.64240972174869</v>
+        <v>4.650685155816968</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>5.509235870276236</v>
+        <v>5.493067914537964</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>4.796418462714908</v>
+        <v>4.920290598625504</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>4.078923863756924</v>
+        <v>4</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>4.886142943684388</v>
+        <v>4.846769590262081</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5.692152385933491</v>
+        <v>5.61586373638725</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5.294248761608611</v>
+        <v>5.227534791735358</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>4.031772673803982</v>
+        <v>4.031743975426891</v>
       </c>
     </row>
     <row r="21">
@@ -1426,38 +1426,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.660647858200568</v>
+        <v>7.688670122282187</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.5527539186181</v>
+        <v>9.588095990546607</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.28613921692225</v>
+        <v>11.27151289040734</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>8.47042409748139</v>
+        <v>8.260184086252197</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>8.017808453257656</v>
+        <v>7.942513845943528</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>9.503295256976564</v>
+        <v>9.745963585713628</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>6.29525948052512</v>
+        <v>6.46666360412806</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>7.951653974326684</v>
+        <v>7.855586945874654</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7.911134631159522</v>
+        <v>7.828431530430996</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9.293284727120408</v>
+        <v>9.061178944008221</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>6.224491566346762</v>
+        <v>6.13761399548978</v>
       </c>
     </row>
     <row r="22">
@@ -1493,7 +1493,7 @@
         <v>8.698869563315988</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>6.067733417338238</v>
+        <v>6.067733417338237</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>8.148130685576584</v>
@@ -1505,7 +1505,7 @@
         <v>7.880406598137058</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>4.889828470224708</v>
+        <v>4.889828470224707</v>
       </c>
     </row>
     <row r="23">
@@ -1516,38 +1516,38 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.808232559202809</v>
+        <v>5.610524831409292</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.070503928371952</v>
+        <v>4.118465887538791</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.673669589756464</v>
+        <v>2.612200924297408</v>
       </c>
       <c r="F23" s="5" t="inlineStr"/>
       <c r="G23" s="5" t="n">
-        <v>5.164605335164207</v>
+        <v>5.173414577698378</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.463940610162556</v>
+        <v>5.380062118868942</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>6.438057407072423</v>
+        <v>6.458301072790358</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.7759614364028</v>
+        <v>4.771095362254156</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.999910084068227</v>
+        <v>5.95406364214241</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5.277133232040389</v>
+        <v>5.3704775054702</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6.003342069802354</v>
+        <v>5.89112741735392</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>2.85030985496558</v>
+        <v>2.898236113037207</v>
       </c>
     </row>
     <row r="24">
@@ -1558,38 +1558,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.92298159281065</v>
+        <v>14.08933826707925</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.081312590277731</v>
+        <v>7.986667232664137</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.804361151616991</v>
+        <v>7.889909857802898</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="n">
-        <v>11.1558471367795</v>
+        <v>10.7020749502211</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.343649302509336</v>
+        <v>8.457495434554829</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>11.95899388204209</v>
+        <v>11.88392153865923</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9</v>
+        <v>8.957955003350452</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.717872045422</v>
+        <v>10.89465340614683</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7.778004004642296</v>
+        <v>7.805615641864954</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10.59098165312154</v>
+        <v>10.53493261149468</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>7.226056033787377</v>
+        <v>7.153531402230723</v>
       </c>
     </row>
     <row r="25">
@@ -1613,7 +1613,7 @@
         <v>8.484945099826206</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7.184918961921191</v>
+        <v>7.18491896192119</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>7.144018470582281</v>
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.444556658695483</v>
+        <v>4.435657810880872</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.169062918960689</v>
+        <v>5.154888059410511</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7.961173967358907</v>
+        <v>7.956679057176342</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6.46999737964731</v>
+        <v>6.436077809778792</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>6.749282087510609</v>
+        <v>6.758316678612444</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>6.919100734917217</v>
+        <v>6.916897451944541</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>9.745534331367711</v>
+        <v>9.755479310012657</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>8.285116626017684</v>
+        <v>8.315578853944455</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>5.93504329396911</v>
+        <v>5.972975050456198</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6.2924648231404</v>
+        <v>6.283419198438186</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9.180324749347042</v>
+        <v>9.16136553030073</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>7.747716908351317</v>
+        <v>7.788707262268822</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.339652413452532</v>
+        <v>5.266582938386034</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.668374495958709</v>
+        <v>5.66783657907555</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9.031587400246673</v>
+        <v>9.054922447685641</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8.088411446332389</v>
+        <v>8.074255136778943</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>7.575041047217526</v>
+        <v>7.553634124685706</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>7.374609249909952</v>
+        <v>7.372501706030187</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>10.65456028754773</v>
+        <v>10.66123852201857</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>9.586879020601378</v>
+        <v>9.597275522440672</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>6.539795442665283</v>
+        <v>6.561815966157126</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>6.639409049352906</v>
+        <v>6.64033888627689</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9.872083708704471</v>
+        <v>9.864532353430334</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>8.755775639912372</v>
+        <v>8.790076518169693</v>
       </c>
     </row>
     <row r="28">
